--- a/Pendientes.xlsx
+++ b/Pendientes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\plantilla\PlantillaWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlantillaWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E7B708-9F06-497D-8740-F4C41865C6BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de tareas pendientes" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <definedName name="TítuloDeColumna1">" "</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Lista de tareas pendientes'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Tarea</t>
   </si>
@@ -59,28 +60,25 @@
     <t>NOTAS</t>
   </si>
   <si>
-    <t>No iniciado</t>
-  </si>
-  <si>
     <t>Tareas pendientes  Gerardo</t>
   </si>
   <si>
     <t>Agregar el componente Excepciones en todos los componentes de Plantilla</t>
   </si>
   <si>
-    <t>En Curso</t>
-  </si>
-  <si>
     <t>Actualizar el SP DEL_CLINTEENTIDAD_SP</t>
   </si>
   <si>
     <t>Implementar metodo Eliminar ClienteEntidad</t>
+  </si>
+  <si>
+    <t>Completado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -268,7 +266,7 @@
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Fecha" xfId="8"/>
+    <cellStyle name="Fecha" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Millares" xfId="3" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Millares [0]" xfId="4" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Moneda" xfId="5" builtinId="4" customBuiltin="1"/>
@@ -276,25 +274,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Notas" xfId="7" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Realizada" xfId="9"/>
+    <cellStyle name="Realizada" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Título" xfId="10" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 2" xfId="11" builtinId="17" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -446,21 +430,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Lista de tareas pendientes" defaultPivotStyle="PivotStyleLight2">
-    <tableStyle name="Tabla dinámica de lista de tareas pendientes" table="0" count="11">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="10"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="9"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="7"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="6"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="5"/>
-      <tableStyleElement type="pageFieldValues" dxfId="4"/>
+    <tableStyle name="Tabla dinámica de lista de tareas pendientes" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="totalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="8"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Lista de tareas pendientes" pivot="0" count="1">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
+    <tableStyle name="Lista de tareas pendientes" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -475,22 +459,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="ListaTareasPendientes" displayName="ListaTareasPendientes" ref="B2:I10" totalsRowShown="0">
-  <autoFilter ref="B2:I10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ListaTareasPendientes" displayName="ListaTareasPendientes" ref="B2:I10" totalsRowShown="0">
+  <autoFilter ref="B2:I10" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="B3:I10">
     <sortCondition ref="F2:F10"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Tarea"/>
-    <tableColumn id="3" name="PRIORIDAD "/>
-    <tableColumn id="4" name="ESTADO "/>
-    <tableColumn id="6" name="FECHA DE INICIO " dataCellStyle="Fecha"/>
-    <tableColumn id="7" name="FECHA DE VENCIMIENTO " dataCellStyle="Fecha"/>
-    <tableColumn id="5" name="% COMPLETADO" dataCellStyle="Porcentaje"/>
-    <tableColumn id="9" name="¿LISTO?" dataCellStyle="Realizada">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORIDAD "/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ESTADO "/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FECHA DE INICIO " dataCellStyle="Fecha"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="FECHA DE VENCIMIENTO " dataCellStyle="Fecha"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="% COMPLETADO" dataCellStyle="Porcentaje"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="¿LISTO?" dataCellStyle="Realizada">
       <calculatedColumnFormula>--(ListaTareasPendientes[[#This Row],[% COMPLETADO]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="NOTAS"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="NOTAS"/>
   </tableColumns>
   <tableStyleInfo name="Lista de tareas pendientes" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
   <extLst>
@@ -727,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -735,7 +719,7 @@
   <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -752,7 +736,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -790,13 +774,13 @@
     </row>
     <row r="3" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="14">
         <v>43530</v>
@@ -815,13 +799,13 @@
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>43531</v>
@@ -840,13 +824,13 @@
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>43531</v>
@@ -940,31 +924,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:I10">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($G3=0,$G3&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="46" yWindow="284" count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crear una lista de tareas con el seguimiento de progreso en esta hoja de cálculo" sqref="A1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El título de la hoja de cálculo se encuentra en esta celda." sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la tarea en esta columna, debajo de este encabezado. Use filtros de encabezado para buscar entradas concretas." sqref="B2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione la prioridad en esta columna, debajo de este encabezado. Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección." sqref="C2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione el estado en la columna con este encabezado.  Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección." sqref="D2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la fecha de inicio en la columna con este encabezado." sqref="E2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la fecha de vencimiento en la columna con este encabezado." sqref="F2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione el porcentaje completado en esta columna. Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección. Una barra de estado indica el progreso hasta la finalización." sqref="G2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El indicador de icono de finalización de la tarea en la columna con este encabezado se actualiza automáticamente a medida que se completan las tareas." sqref="H2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba las notas en la columna con este encabezado" sqref="I2"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para navegar por la lista. Presione ENTRAR para realizar una selección." sqref="C4:C10">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crear una lista de tareas con el seguimiento de progreso en esta hoja de cálculo" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El título de la hoja de cálculo se encuentra en esta celda." sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la tarea en esta columna, debajo de este encabezado. Use filtros de encabezado para buscar entradas concretas." sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione la prioridad en esta columna, debajo de este encabezado. Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección." sqref="C2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione el estado en la columna con este encabezado.  Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección." sqref="D2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la fecha de inicio en la columna con este encabezado." sqref="E2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la fecha de vencimiento en la columna con este encabezado." sqref="F2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione el porcentaje completado en esta columna. Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección. Una barra de estado indica el progreso hasta la finalización." sqref="G2" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El indicador de icono de finalización de la tarea en la columna con este encabezado se actualiza automáticamente a medida que se completan las tareas." sqref="H2" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba las notas en la columna con este encabezado" sqref="I2" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para navegar por la lista. Presione ENTRAR para realizar una selección." sqref="C4:C10" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Baja, Normal, Alta"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para navegar por la lista. Presione ENTRAR para realizar una selección." sqref="D4:D10">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para navegar por la lista. Presione ENTRAR para realizar una selección." sqref="D4:D10" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"No iniciado, En curso, Aplazado, Completado"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para navegar por la lista. Presione ENTRAR para realizar una selección." sqref="G4:G10">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para navegar por la lista. Presione ENTRAR para realizar una selección." sqref="G4:G10" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"0%, 25%, 50%, 75%, 100%"</formula1>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="La fecha de vencimiento debe ser posterior o igual a la fecha de inicio. Seleccione SÍ para mantener el valor, NO para volver a intentarlo y CANCELAR para borrar la entrada." sqref="E4:F10">
+    <dataValidation type="custom" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="La fecha de vencimiento debe ser posterior o igual a la fecha de inicio. Seleccione SÍ para mantener el valor, NO para volver a intentarlo y CANCELAR para borrar la entrada." sqref="E4:F10" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>E4&gt;=D4</formula1>
     </dataValidation>
   </dataValidations>
